--- a/Baseball_Stats_2024.xlsx
+++ b/Baseball_Stats_2024.xlsx
@@ -7,8 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Team Stats" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Stats" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -426,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N1"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,79 +451,63 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Win Percentage</t>
+          <t>SO</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Loss Percentage</t>
+          <t>R</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>SO</t>
+          <t>HR</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ERA</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>FIP</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>H</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>HR</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>BA</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>OBP</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>SLG</t>
+          <t>SB</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>https://www.baseball-reference.com/teams/ATL/2024.shtml</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1553</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>704</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>213</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>69</t>
         </is>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>
--- a/Baseball_Stats_2024.xlsx
+++ b/Baseball_Stats_2024.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:O30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,22 +451,62 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>Win Percentage</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Loss Percentage</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>SO</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>ERA</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>FIP</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>R</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>HR</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>SB</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>BA</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>OBP</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>SLG</t>
         </is>
       </c>
     </row>
@@ -488,22 +528,2218 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>54.94%</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>45.06%</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
           <t>1553</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
         <is>
           <t>704</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>1333</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
         <is>
           <t>213</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>69</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>.243</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>.309</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>.415</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>https://www.baseball-reference.com/teams/BAL/2024.shtml</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>56.17%</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>43.83%</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1380</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>786</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>1391</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>235</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>.250</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>.315</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>.435</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>https://www.baseball-reference.com/teams/BOS/2024.shtml</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>50.00%</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>50.00%</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1353</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>751</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>1404</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>194</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>144</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>.252</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>.319</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>.423</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>https://www.baseball-reference.com/teams/CHC/2024.shtml</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>51.23%</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>48.77%</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1348</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>736</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>1318</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>170</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>143</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>.242</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>.317</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>.393</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>https://www.baseball-reference.com/teams/CHW/2024.shtml</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>121</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>25.31%</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>74.69%</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1366</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>507</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>1187</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>133</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>.221</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>.278</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>.340</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>https://www.baseball-reference.com/teams/CIN/2024.shtml</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>47.53%</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>52.47%</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1370</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>699</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>1230</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>174</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>207</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>.231</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>.305</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>.388</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>https://www.baseball-reference.com/teams/CLE/2024.shtml</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>57.14%</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>42.86%</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1410</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>708</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>1263</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>185</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>148</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>.238</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>.307</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>.395</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>https://www.baseball-reference.com/teams/COL/2024.shtml</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>37.65%</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>62.35%</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1118</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>682</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>1319</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>179</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>.242</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>.304</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>.400</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>https://www.baseball-reference.com/teams/DET/2024.shtml</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>53.09%</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>46.91%</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1354</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>682</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>1273</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>162</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>.234</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>.300</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>.385</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>https://www.baseball-reference.com/teams/HOU/2024.shtml</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>54.66%</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>45.34%</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1479</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>740</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>1448</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>190</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>.262</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>.322</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>.418</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>https://www.baseball-reference.com/teams/KCR/2024.shtml</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>53.09%</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>46.91%</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1339</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>735</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>1343</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>170</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>.248</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>.306</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>.403</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>https://www.baseball-reference.com/teams/LAA/2024.shtml</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>38.89%</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>61.11%</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1252</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>635</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>1227</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>165</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>133</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>.229</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>.301</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>.369</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>https://www.baseball-reference.com/teams/LAD/2024.shtml</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>60.49%</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>39.51%</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1390</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>842</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>1423</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>233</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>136</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>.258</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>.335</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>.446</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>https://www.baseball-reference.com/teams/MIA/2024.shtml</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>38.27%</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>61.73%</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1317</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>637</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>1347</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>125</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>.244</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>.300</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>.378</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>https://www.baseball-reference.com/teams/MIL/2024.shtml</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>57.41%</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>42.59%</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1373</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>777</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>1359</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>177</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>217</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>.248</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>.326</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>.403</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>https://www.baseball-reference.com/teams/MIN/2024.shtml</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>50.62%</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>49.38%</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1500</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>742</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>1352</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>183</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>.246</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>.315</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>.411</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>https://www.baseball-reference.com/teams/NYM/2024.shtml</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>54.94%</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>45.06%</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1455</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>768</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>1357</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>207</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>.246</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>.319</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>.415</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>https://www.baseball-reference.com/teams/NYY/2024.shtml</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>58.02%</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>41.98%</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1457</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>815</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>1352</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>237</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>.248</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>.333</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>.429</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>https://www.baseball-reference.com/teams/OAK/2024.shtml</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>42.59%</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>57.41%</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1263</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>643</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>1267</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>196</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>.233</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>.301</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>.393</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>https://www.baseball-reference.com/teams/PHI/2024.shtml</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>58.64%</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>41.36%</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1433</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>784</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>1423</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>198</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>148</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>.257</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>.325</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>.425</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>https://www.baseball-reference.com/teams/PIT/2024.shtml</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>46.91%</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>53.09%</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1356</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>665</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>1283</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>160</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>.234</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>.301</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>.371</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>https://www.baseball-reference.com/teams/SDP/2024.shtml</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>57.41%</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>42.59%</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1453</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>760</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>1456</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>190</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>.263</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>.324</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>.420</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>https://www.baseball-reference.com/teams/SEA/2024.shtml</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>52.47%</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>47.53%</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1416</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>676</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>1195</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>185</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>.224</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>.311</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>.376</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>https://www.baseball-reference.com/teams/SFG/2024.shtml</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>49.38%</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>50.62%</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1436</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>693</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>1303</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>177</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>.239</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>.305</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>.396</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>https://www.baseball-reference.com/teams/STL/2024.shtml</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>51.23%</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>48.77%</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1308</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>672</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>1363</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>165</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>.248</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>.312</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>.392</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>https://www.baseball-reference.com/teams/TBR/2024.shtml</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>49.38%</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>50.62%</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1406</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>604</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>1241</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>147</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>178</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>.230</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>.302</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>.366</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>https://www.baseball-reference.com/teams/TEX/2024.shtml</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>48.15%</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>51.85%</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1371</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>683</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>1302</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>176</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>.238</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>.305</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>.380</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>https://www.baseball-reference.com/teams/TOR/2024.shtml</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>45.68%</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>54.32%</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1314</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>671</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>1306</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>156</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>.241</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>.313</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>.389</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>https://www.baseball-reference.com/teams/WSN/2024.shtml</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>43.83%</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>56.17%</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1314</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>660</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>1306</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>223</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>.243</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>.309</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>.375</t>
         </is>
       </c>
     </row>
